--- a/bimetallics/fe2_morokuma/3d4s_2p_3d4s/data.xlsx
+++ b/bimetallics/fe2_morokuma/3d4s_2p_3d4s/data.xlsx
@@ -1,44 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmayhall/code/FermiCG-data/bimetallics/fe2_morokuma/3d4s_2p_3d4s/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB5841-5C04-4A4A-8B50-E3141C9DA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F763C-D996-4243-8B13-F7689A6C9F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{2CDD2A93-E98D-3C42-95C0-96E067990117}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="1" xr2:uid="{2CDD2A93-E98D-3C42-95C0-96E067990117}"/>
   </bookViews>
   <sheets>
     <sheet name="M90" sheetId="1" r:id="rId1"/>
+    <sheet name="26" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'M90'!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'M90'!$I$17:$I$45</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'M90'!$K$17:$K$45</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'M90'!$L$17:$L$45</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'M90'!$M$17:$M$45</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'M90'!$N$17:$N$45</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'M90'!#REF!</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'M90'!$I$17:$I$45</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'M90'!$J$17:$J$45</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'M90'!$K$17:$K$45</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'M90'!$L$17:$L$45</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'M90'!$M$17:$M$45</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'M90'!$J$17:$J$45</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'M90'!$N$17:$N$45</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'M90'!$K$17:$K$45</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'M90'!$L$17:$L$45</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'M90'!$M$17:$M$45</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'M90'!$N$17:$N$45</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'M90'!#REF!</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'M90'!$I$17:$I$45</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'M90'!$J$17:$J$45</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'M90'!$M$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'M90'!$M$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'M90'!$N$6:$P$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'M90'!$N$7:$P$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'M90'!$N$8:$P$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'M90'!$M$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'M90'!$M$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'M90'!$M$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'M90'!$M$6</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'M90'!$M$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'M90'!$M$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'M90'!$N$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'M90'!$M$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'M90'!$N$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'M90'!$N$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'M90'!$N$5:$P$5</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'M90'!$N$6:$P$6</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'M90'!$N$7:$P$7</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'M90'!$N$8:$P$8</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'M90'!$M$3</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'M90'!$M$4</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'M90'!$M$5</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'M90'!$M$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'M90'!$M$6</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'M90'!$M$7</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'M90'!$M$8</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'M90'!$N$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'M90'!$N$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'M90'!$N$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'M90'!$N$5:$P$5</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'M90'!$N$6:$P$6</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'M90'!$N$7:$P$7</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'M90'!$N$8:$P$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'M90'!$M$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'M90'!$M$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'M90'!$N$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'M90'!$N$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'M90'!$N$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'M90'!$N$5:$P$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +77,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -80,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>PT2</t>
   </si>
@@ -95,6 +114,18 @@
   </si>
   <si>
     <t>Extrapolation(2)</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>M120</t>
   </si>
 </sst>
 </file>
@@ -130,8 +161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +695,1486 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Levels</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'M90'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'M90'!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Extrapolation(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'M90'!$N$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-2291.688258305393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2370.9471319299605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2440.3095892865263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA27-564D-8A4B-56AF63392EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'M90'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'M90'!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Extrapolation(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'M90'!$N$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-2170.4811983873697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2227.8694249975429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2270.9792207384903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA27-564D-8A4B-56AF63392EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'M90'!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'M90'!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Extrapolation(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'M90'!$N$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1857.4598948998228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1917.8702871828491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1926.7365877123102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA27-564D-8A4B-56AF63392EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'M90'!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'M90'!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Extrapolation(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'M90'!$N$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1388.4052969898883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1444.8585616679493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1465.1800606820041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EA27-564D-8A4B-56AF63392EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'M90'!$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'M90'!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Extrapolation(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'M90'!$N$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-773.33203208720931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-809.88553193828648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-826.52082583019842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EA27-564D-8A4B-56AF63392EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'M90'!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'M90'!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Extrapolation(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'M90'!$N$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EA27-564D-8A4B-56AF63392EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2114237984"/>
+        <c:axId val="2114900144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2114237984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114900144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114900144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114237984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'26'!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'26'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'26'!$D$25:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.91191709391232423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.239146184942474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-39.242064087845193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-64.856948314321727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CF3-914C-98B1-7644C6ABAD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'26'!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'26'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'26'!$E$25:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.91191709391232423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20.715113081344079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40.331755632276227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-67.479670159351855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CF3-914C-98B1-7644C6ABAD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'26'!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'26'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'26'!$F$25:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.90423548117903274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20.679997140539385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-39.864274666999854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-67.249221795286914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CF3-914C-98B1-7644C6ABAD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'26'!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'26'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'26'!$G$25:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-4.011996261108151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.460672195062836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-41.483997447142812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-65.08849405085455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8CF3-914C-98B1-7644C6ABAD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2090528384"/>
+        <c:axId val="2081918048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2090528384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081918048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2081918048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090528384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1205,6 +2717,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1226,6 +3770,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56708CC1-81BA-D9E3-CB5E-EA4EFD9F9266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1071562</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF96E03-3911-7E49-AE5B-69B78ECA9C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B4C592-45B0-0845-B0B0-FB94DCACE9BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863FA600-242D-D944-9BB5-5F4372C1ADCA}">
-  <dimension ref="B1:M43"/>
+  <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,12 +4178,12 @@
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M1">
         <v>219474.63136319999</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>1</v>
       </c>
@@ -1570,11 +4191,23 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <f>D37</f>
+        <f t="shared" ref="K2:K8" si="0">D37</f>
         <v>Extrapolation(2)</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="str">
+        <f>I2</f>
+        <v>Var</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:P2" si="1">J2</f>
+        <v>PT2</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" si="1"/>
+        <v>Extrapolation(2)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1603,11 +4236,30 @@
         <v>-103.53888883</v>
       </c>
       <c r="K3">
-        <f>D38</f>
+        <f t="shared" si="0"/>
         <v>-103.53932876322216</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f>H3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <f>(I3-I$8)*$M$1</f>
+        <v>-2291.688258305393</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:P3" si="2">(J3-J$8)*$M$1</f>
+        <v>-2370.9471319299605</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="2"/>
+        <v>-2440.3095892865263</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1624,23 +4276,39 @@
         <v>-103.53764473</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H8" si="0">B4</f>
+        <f t="shared" ref="H4:H8" si="3">B4</f>
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="1">F4</f>
+        <f t="shared" ref="I4:I8" si="4">F4</f>
         <v>-103.53764473</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J8" si="2">F11</f>
+        <f t="shared" ref="J4:J8" si="5">F11</f>
         <v>-103.53823692</v>
       </c>
       <c r="K4">
-        <f>D39</f>
+        <f t="shared" si="0"/>
         <v>-103.53855723729455</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f t="shared" ref="M4:M8" si="6">H4</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N8" si="7">(I4-I$8)*$M$1</f>
+        <v>-2170.4811983873697</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O8" si="8">(J4-J$8)*$M$1</f>
+        <v>-2227.8694249975429</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P8" si="9">(K4-K$8)*$M$1</f>
+        <v>-2270.9792207384903</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1657,23 +4325,39 @@
         <v>-103.5362185</v>
       </c>
       <c r="H5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>-103.5362185</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>-103.53682446000001</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
+        <v>-103.53698875245014</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>-103.5362185</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>-103.53682446000001</v>
-      </c>
-      <c r="K5">
-        <f>D40</f>
-        <v>-103.53698875245014</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="1">
+        <f t="shared" si="7"/>
+        <v>-1857.4598948998228</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="8"/>
+        <v>-1917.8702871828491</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="9"/>
+        <v>-1926.7365877123102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1690,23 +4374,39 @@
         <v>-103.53408133000001</v>
       </c>
       <c r="H6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>-103.53408133000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>-103.53466926</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
+        <v>-103.53488574617482</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>-103.53408133000001</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>-103.53466926</v>
-      </c>
-      <c r="K6">
-        <f>D41</f>
-        <v>-103.53488574617482</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="1">
+        <f t="shared" si="7"/>
+        <v>-1388.4052969898883</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="8"/>
+        <v>-1444.8585616679493</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="9"/>
+        <v>-1465.1800606820041</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1723,23 +4423,39 @@
         <v>-103.53127885000001</v>
       </c>
       <c r="H7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>-103.53127885000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>-103.53177611</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
+        <v>-103.53197580058847</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>-103.53127885000001</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>-103.53177611</v>
-      </c>
-      <c r="K7">
-        <f>D42</f>
-        <v>-103.53197580058847</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="1">
+        <f t="shared" si="7"/>
+        <v>-773.33203208720931</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="8"/>
+        <v>-809.88553193828648</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="9"/>
+        <v>-826.52082583019842</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1756,23 +4472,39 @@
         <v>-103.52775529</v>
       </c>
       <c r="H8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>-103.52775529</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>-103.528086</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
+        <v>-103.52820989461247</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>-103.52775529</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>-103.528086</v>
-      </c>
-      <c r="K8">
-        <f>D43</f>
-        <v>-103.52820989461247</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1</v>
       </c>
@@ -1793,15 +4525,15 @@
         <v>Var</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J10:K10" si="3">J2</f>
+        <f t="shared" ref="J10:K10" si="10">J2</f>
         <v>PT2</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Extrapolation(2)</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1833,7 +4565,7 @@
         <v>-84.665184274018173</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1853,19 +4585,19 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:J15" si="4">-(I5-I4)/(2*$H12)*$M$1</f>
+        <f t="shared" ref="I12:J15" si="11">-(I5-I4)/(2*$H12)*$M$1</f>
         <v>-78.25532587188674</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-77.499784453673442</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12" si="5">-(K5-K4)/(2*$H12)*$M$1</f>
+        <f t="shared" ref="K12" si="12">-(K5-K4)/(2*$H12)*$M$1</f>
         <v>-86.06065825654494</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1885,19 +4617,19 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-78.175766318322403</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-78.83528758581663</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13" si="6">-(K6-K5)/(2*$H13)*$M$1</f>
+        <f t="shared" ref="K13" si="13">-(K6-K5)/(2*$H13)*$M$1</f>
         <v>-76.926087838384362</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>5</v>
       </c>
@@ -1917,19 +4649,19 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-76.884158112834868</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-79.371628716207852</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14" si="7">-(K7-K6)/(2*$H14)*$M$1</f>
+        <f t="shared" ref="K14" si="14">-(K7-K6)/(2*$H14)*$M$1</f>
         <v>-79.83240435647572</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>6</v>
       </c>
@@ -1949,15 +4681,15 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-77.333203208720931</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-80.98855319382865</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15" si="8">-(K8-K7)/(2*$H15)*$M$1</f>
+        <f t="shared" ref="K15" si="15">-(K8-K7)/(2*$H15)*$M$1</f>
         <v>-82.652082583019848</v>
       </c>
     </row>
@@ -1971,15 +4703,15 @@
         <v>-1.4976150000009625E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:F17" si="9">D10-D3</f>
+        <f t="shared" ref="D17:F17" si="16">D10-D3</f>
         <v>-3.0552199999931418E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-1.9857300000012401E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-6.9184000000177548E-4</v>
       </c>
     </row>
@@ -1988,19 +4720,19 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:F18" si="10">C11-C4</f>
+        <f t="shared" ref="C18:F18" si="17">C11-C4</f>
         <v>-1.4928190000006225E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3.0152399999963109E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-1.7542100000014216E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-5.9219000000609867E-4</v>
       </c>
     </row>
@@ -2009,19 +4741,19 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:F19" si="11">C12-C5</f>
+        <f t="shared" ref="C19:F19" si="18">C12-C5</f>
         <v>-1.7300960000000032E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-4.757190000006517E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-2.3011400000001458E-3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-6.0596000000145978E-4</v>
       </c>
     </row>
@@ -2030,19 +4762,19 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:F20" si="12">C13-C6</f>
+        <f t="shared" ref="C20:F20" si="19">C13-C6</f>
         <v>-1.6737359999993373E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-4.4287600000103566E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-2.2151199999882465E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-5.879299999946852E-4</v>
       </c>
     </row>
@@ -2051,19 +4783,19 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:F21" si="13">C14-C7</f>
+        <f t="shared" ref="C21:F21" si="20">C14-C7</f>
         <v>-1.6155630000000087E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-4.09843999999282E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-1.9955100000004222E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-4.9725999998884163E-4</v>
       </c>
     </row>
@@ -2072,19 +4804,19 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:F22" si="14">C15-C8</f>
+        <f t="shared" ref="C22:F22" si="21">C15-C8</f>
         <v>-1.5148209999992446E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-3.6659999999955062E-3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-1.6391400000088652E-3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-3.3071000000006734E-4</v>
       </c>
     </row>
@@ -2186,7 +4918,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32">
-        <f t="shared" ref="B32:B36" si="15">B25</f>
+        <f t="shared" ref="B32:B36" si="22">B25</f>
         <v>2</v>
       </c>
       <c r="C32" cm="1">
@@ -2199,7 +4931,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="C33" cm="1">
@@ -2212,7 +4944,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="C34" cm="1">
@@ -2225,7 +4957,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="C35" cm="1">
@@ -2238,7 +4970,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="C36" cm="1">
@@ -2269,7 +5001,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39">
-        <f t="shared" ref="B39:B43" si="16">B32</f>
+        <f t="shared" ref="B39:B43" si="23">B32</f>
         <v>2</v>
       </c>
       <c r="C39" cm="1">
@@ -2282,7 +5014,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="C40" cm="1">
@@ -2295,7 +5027,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="C41" cm="1">
@@ -2308,7 +5040,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="C42" cm="1">
@@ -2321,7 +5053,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="C43" cm="1">
@@ -2330,6 +5062,529 @@
       </c>
       <c r="D43">
         <v>-103.52820989461247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFBAEA8-AA79-BC43-928F-4E5FA09B79FC}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>219474.63136319999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>498</v>
+      </c>
+      <c r="C2">
+        <v>-57.989146580000003</v>
+      </c>
+      <c r="D2">
+        <v>-57.989138269999998</v>
+      </c>
+      <c r="E2">
+        <v>-57.984453629999997</v>
+      </c>
+      <c r="F2">
+        <v>-57.98274996</v>
+      </c>
+      <c r="G2">
+        <v>-57.980099389999999</v>
+      </c>
+      <c r="H2">
+        <v>-57.9772794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5835</v>
+      </c>
+      <c r="C3">
+        <v>-58.001743179999998</v>
+      </c>
+      <c r="D3">
+        <v>-58.001567860000002</v>
+      </c>
+      <c r="E3">
+        <v>-57.999664350000003</v>
+      </c>
+      <c r="F3">
+        <v>-57.997480070000002</v>
+      </c>
+      <c r="G3">
+        <v>-57.994818549999998</v>
+      </c>
+      <c r="H3">
+        <v>-57.991627129999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12355</v>
+      </c>
+      <c r="C4">
+        <v>-58.003938390000002</v>
+      </c>
+      <c r="D4">
+        <v>-58.003580790000001</v>
+      </c>
+      <c r="E4">
+        <v>-58.001998329999999</v>
+      </c>
+      <c r="F4">
+        <v>-57.999776869999998</v>
+      </c>
+      <c r="G4">
+        <v>-57.997045239999999</v>
+      </c>
+      <c r="H4">
+        <v>-57.993720340000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>58318</v>
+      </c>
+      <c r="C5">
+        <v>-58.005985930000001</v>
+      </c>
+      <c r="D5">
+        <v>-58.00539491</v>
+      </c>
+      <c r="E5">
+        <v>-58.003922719999998</v>
+      </c>
+      <c r="F5">
+        <v>-58.001726720000001</v>
+      </c>
+      <c r="G5">
+        <v>-57.998824829999997</v>
+      </c>
+      <c r="H5">
+        <v>-57.995176190000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>498</v>
+      </c>
+      <c r="C7">
+        <v>-57.989146580000003</v>
+      </c>
+      <c r="D7">
+        <v>-57.989138269999998</v>
+      </c>
+      <c r="E7">
+        <v>-57.984453629999997</v>
+      </c>
+      <c r="F7">
+        <v>-57.98274996</v>
+      </c>
+      <c r="G7">
+        <v>-57.980099389999999</v>
+      </c>
+      <c r="H7">
+        <v>-57.9772794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5892</v>
+      </c>
+      <c r="C8">
+        <v>-58.002081959999998</v>
+      </c>
+      <c r="D8">
+        <v>-58.001893189999997</v>
+      </c>
+      <c r="E8">
+        <v>-57.999971160000001</v>
+      </c>
+      <c r="F8">
+        <v>-57.997712040000003</v>
+      </c>
+      <c r="G8">
+        <v>-57.994961930000002</v>
+      </c>
+      <c r="H8">
+        <v>-57.991642390000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12431</v>
+      </c>
+      <c r="C9">
+        <v>-58.004366640000001</v>
+      </c>
+      <c r="D9">
+        <v>-58.003999110000002</v>
+      </c>
+      <c r="E9">
+        <v>-58.002364739999997</v>
+      </c>
+      <c r="F9">
+        <v>-58.000062329999999</v>
+      </c>
+      <c r="G9">
+        <v>-57.997213549999998</v>
+      </c>
+      <c r="H9">
+        <v>-57.993733859999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>63297</v>
+      </c>
+      <c r="C10">
+        <v>-58.006547410000003</v>
+      </c>
+      <c r="D10">
+        <v>-58.005932489999999</v>
+      </c>
+      <c r="E10">
+        <v>-58.004409269999996</v>
+      </c>
+      <c r="F10">
+        <v>-58.002123670000003</v>
+      </c>
+      <c r="G10">
+        <v>-57.999094530000001</v>
+      </c>
+      <c r="H10">
+        <v>-57.995262629999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>494</v>
+      </c>
+      <c r="C12">
+        <v>-57.989146179999999</v>
+      </c>
+      <c r="D12">
+        <v>-57.989137939999999</v>
+      </c>
+      <c r="E12">
+        <v>-57.984388260000003</v>
+      </c>
+      <c r="F12">
+        <v>-57.98269767</v>
+      </c>
+      <c r="G12">
+        <v>-57.98006341</v>
+      </c>
+      <c r="H12">
+        <v>-57.97705646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5914</v>
+      </c>
+      <c r="C13">
+        <v>-58.002082610000002</v>
+      </c>
+      <c r="D13">
+        <v>-58.001894159999999</v>
+      </c>
+      <c r="E13">
+        <v>-57.999964910000003</v>
+      </c>
+      <c r="F13">
+        <v>-57.997716509999997</v>
+      </c>
+      <c r="G13">
+        <v>-57.994958760000003</v>
+      </c>
+      <c r="H13">
+        <v>-57.99163291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12591</v>
+      </c>
+      <c r="C14">
+        <v>-58.004429109999997</v>
+      </c>
+      <c r="D14">
+        <v>-58.004065840000003</v>
+      </c>
+      <c r="E14">
+        <v>-58.002423759999999</v>
+      </c>
+      <c r="F14">
+        <v>-58.000107309999997</v>
+      </c>
+      <c r="G14">
+        <v>-57.997255610000003</v>
+      </c>
+      <c r="H14">
+        <v>-57.993785099999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>65309</v>
+      </c>
+      <c r="C15">
+        <v>-58.006648239999997</v>
+      </c>
+      <c r="D15">
+        <v>-58.006035420000003</v>
+      </c>
+      <c r="E15">
+        <v>-58.00450799</v>
+      </c>
+      <c r="F15">
+        <v>-58.002216050000001</v>
+      </c>
+      <c r="G15">
+        <v>-57.999181180000001</v>
+      </c>
+      <c r="H15">
+        <v>-57.995345839999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>635</v>
+      </c>
+      <c r="C17">
+        <v>-57.993688370000001</v>
+      </c>
+      <c r="D17">
+        <v>-57.993651810000003</v>
+      </c>
+      <c r="E17">
+        <v>-57.985085290000001</v>
+      </c>
+      <c r="F17">
+        <v>-57.983488690000001</v>
+      </c>
+      <c r="G17">
+        <v>-57.980774169999997</v>
+      </c>
+      <c r="H17">
+        <v>-57.977832489999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6744</v>
+      </c>
+      <c r="C18">
+        <v>-58.004299699999997</v>
+      </c>
+      <c r="D18">
+        <v>-58.004186150000002</v>
+      </c>
+      <c r="E18">
+        <v>-58.001665459999998</v>
+      </c>
+      <c r="F18">
+        <v>-57.999314210000001</v>
+      </c>
+      <c r="G18">
+        <v>-57.9964187</v>
+      </c>
+      <c r="H18">
+        <v>-57.99296545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13192</v>
+      </c>
+      <c r="C19">
+        <v>-58.006097050000001</v>
+      </c>
+      <c r="D19">
+        <v>-58.005719020000001</v>
+      </c>
+      <c r="E19">
+        <v>-58.004068140000001</v>
+      </c>
+      <c r="F19">
+        <v>-58.001682780000003</v>
+      </c>
+      <c r="G19">
+        <v>-57.998765779999999</v>
+      </c>
+      <c r="H19">
+        <v>-57.995224100000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>76525</v>
+      </c>
+      <c r="C20">
+        <v>-58.008760090000003</v>
+      </c>
+      <c r="D20">
+        <v>-58.008166959999997</v>
+      </c>
+      <c r="E20">
+        <v>-58.006600370000001</v>
+      </c>
+      <c r="F20">
+        <v>-58.004259169999997</v>
+      </c>
+      <c r="G20">
+        <v>-58.001170620000003</v>
+      </c>
+      <c r="H20">
+        <v>-57.997289549999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D25">
+        <f>$K$1*(C2-D2)/2/D$1</f>
+        <v>-0.91191709391232423</v>
+      </c>
+      <c r="E25">
+        <f>$K$1*(C7-D7)/2/D$1</f>
+        <v>-0.91191709391232423</v>
+      </c>
+      <c r="F25">
+        <f>$K$1*(C12-D12)/2/D$1</f>
+        <v>-0.90423548117903274</v>
+      </c>
+      <c r="G25">
+        <f>$K$1*(C17-D17)/2/D$1</f>
+        <v>-4.011996261108151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D44" si="0">$K$1*(C3-D3)/2/D$1</f>
+        <v>-19.239146184942474</v>
+      </c>
+      <c r="E26">
+        <f>$K$1*(C8-D8)/2/D$1</f>
+        <v>-20.715113081344079</v>
+      </c>
+      <c r="F26">
+        <f>$K$1*(C13-D13)/2/D$1</f>
+        <v>-20.679997140539385</v>
+      </c>
+      <c r="G26">
+        <f>$K$1*(C18-D18)/2/D$1</f>
+        <v>-12.460672195062836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-39.242064087845193</v>
+      </c>
+      <c r="E27">
+        <f>$K$1*(C9-D9)/2/D$1</f>
+        <v>-40.331755632276227</v>
+      </c>
+      <c r="F27">
+        <f>$K$1*(C14-D14)/2/D$1</f>
+        <v>-39.864274666999854</v>
+      </c>
+      <c r="G27">
+        <f>$K$1*(C19-D19)/2/D$1</f>
+        <v>-41.483997447142812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-64.856948314321727</v>
+      </c>
+      <c r="E28">
+        <f>$K$1*(C10-D10)/2/D$1</f>
+        <v>-67.479670159351855</v>
+      </c>
+      <c r="F28">
+        <f>$K$1*(C15-D15)/2/D$1</f>
+        <v>-67.249221795286914</v>
+      </c>
+      <c r="G28">
+        <f>$K$1*(C20-D20)/2/D$1</f>
+        <v>-65.08849405085455</v>
       </c>
     </row>
   </sheetData>
